--- a/dados/digitalshop sc.xlsx
+++ b/dados/digitalshop sc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -521,17 +551,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1056404169#searchVariation=MLB27685629&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1056404169#searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -596,17 +652,23 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -621,17 +683,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -646,17 +718,27 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -671,17 +753,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -696,17 +784,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -721,17 +819,27 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -746,17 +854,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1056404169#searchVariation=MLB28722231&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1056404169#searchVariation=MLB28722231&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -771,17 +885,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -796,17 +920,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -821,17 +955,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -846,17 +986,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -871,17 +1021,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-controle-longa-distncia-jfa-k1200-completo-preto/p/MLB29770584?pdp_filters=seller_id:1056404169#searchVariation=MLB29770584&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/kit-controle-longa-distncia-jfa-k1200-completo-preto/p/MLB29770584?pdp_filters=seller_id:1056404169#searchVariation=MLB29770584&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -896,17 +1052,27 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -921,17 +1087,27 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3863782558-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3863782558-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -946,17 +1122,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -971,17 +1157,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -996,17 +1188,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1223,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1258,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344087007-controle-longa-distancia-jfa-k1200-azul-completo-o-melhor-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344087007-controle-longa-distancia-jfa-k1200-azul-completo-o-melhor-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1289,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1320,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1351,27 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1386,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3497393217-controle-jfa-acqua-prova-dagua-longa-distncia-1200m-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3497393217-controle-jfa-acqua-prova-dagua-longa-distncia-1200m-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1417,27 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1452,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1487,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1056404169#searchVariation=MLB28687615&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1056404169#searchVariation=MLB28687615&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1518,27 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1553,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1588,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D1f6780cd-2615-4af4-ac37-3435bda6a5ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
         </is>
       </c>
     </row>

--- a/dados/digitalshop sc.xlsx
+++ b/dados/digitalshop sc.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,17 +476,17 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>641.27</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -511,14 +511,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>624.33</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -546,13 +546,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>60.99</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1056404169#searchVariation=MLB27685629&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1056404169#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>422.93</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -612,14 +612,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>493.42</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -637,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -647,15 +647,19 @@
           <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>536.25</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>479.8</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>NA</t>
@@ -668,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -678,14 +682,14 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>402.79</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -703,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -713,14 +717,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>433</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -738,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -748,13 +752,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>77.22</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -769,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -779,14 +783,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>499.46</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -804,7 +808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -814,17 +818,17 @@
           <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>364.95</v>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
+      <c r="C12" t="n">
+        <v>326.53</v>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -839,7 +843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -849,13 +853,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>54.09</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -870,7 +874,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1056404169#searchVariation=MLB28722231&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1056404169#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -880,14 +884,14 @@
           <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>523.63</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -905,7 +909,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -915,14 +919,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>845.87</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -940,23 +944,23 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+          <t>Kit Controle Longa Distância Jfa K1200 Completo Preto</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>64.20999999999999</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -971,7 +975,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/kit-controle-longa-distncia-jfa-k1200-completo-preto/p/MLB29770584?pdp_filters=seller_id:1056404169#searchVariation=MLB29770584&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -981,14 +985,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>443.07</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1006,23 +1010,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Completo Preto</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>64.20999999999999</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -1037,7 +1041,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-controle-longa-distncia-jfa-k1200-completo-preto/p/MLB29770584?pdp_filters=seller_id:1056404169#searchVariation=MLB29770584&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1051,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>634.4</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1072,7 +1076,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1082,14 +1086,14 @@
           <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>443.07</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1107,7 +1111,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3863782558-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3863782558-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1121,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador Som</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>573.36</v>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t>FONTE 120A LITE</t>
         </is>
       </c>
+      <c r="C21" t="n">
+        <v>513.01</v>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1142,23 +1146,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>117.81</v>
-      </c>
-      <c r="C22" t="inlineStr">
+          <t>Controle Longa Distancia Jfa K1200 Azul Completo O Melhor</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C22" t="n">
+        <v>69.45999999999999</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1168,12 +1172,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344087007-controle-longa-distancia-jfa-k1200-azul-completo-o-melhor-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1187,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
+      <c r="C23" t="n">
+        <v>388.69</v>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1208,7 +1212,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1218,17 +1222,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador Som</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>408.73</v>
-      </c>
-      <c r="C24" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
+      <c r="C24" t="n">
+        <v>365.71</v>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1243,23 +1247,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul Completo O Melhor</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="C25" t="inlineStr">
+          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C25" t="n">
+        <v>78</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1274,7 +1278,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344087007-controle-longa-distancia-jfa-k1200-azul-completo-o-melhor-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1284,13 +1288,13 @@
           <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>78</v>
-      </c>
-      <c r="C26" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C26" t="n">
+        <v>64.20999999999999</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1300,30 +1304,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>64.20999999999999</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>641.27</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1331,34 +1339,30 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>117.81</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1366,12 +1370,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1381,13 +1385,13 @@
           <t>Controle Jfa Acqua Prova D'água Longa Distância 1200m Branco</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>92.23</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1402,7 +1406,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3497393217-controle-jfa-acqua-prova-dagua-longa-distncia-1200m-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3497393217-controle-jfa-acqua-prova-dagua-longa-distncia-1200m-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1416,14 @@
           <t>Fonte Automotiva Carregador Bateria Jfa Storm 120a Amperes</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1437,7 +1441,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1447,14 +1451,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D31" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1462,7 +1466,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1472,7 +1476,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1482,13 +1486,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>64.34</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1503,7 +1507,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1056404169#searchVariation=MLB28687615&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1056404169#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1513,14 +1517,14 @@
           <t>Fonte Carregador Automotivo Jfa 60a Bivolt Storm Medidor Cca</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>473.28</v>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1538,7 +1542,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1548,17 +1552,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>FONTE 60A LITE</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>349.33</v>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1573,7 +1577,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>
@@ -1583,17 +1587,17 @@
           <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="C35" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
+      <c r="C35" t="n">
+        <v>610.0599999999999</v>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1608,7 +1612,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4326e1d9-9a90-4964-80b2-04c03a6bbbdd</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
         </is>
       </c>
     </row>

--- a/dados/digitalshop sc.xlsx
+++ b/dados/digitalshop sc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,11 +482,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>641.27</v>
+        <v>716.71</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -536,25 +536,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60.99</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>422.93</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -567,23 +571,23 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:1056404169#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>422.93</v>
+        <v>493.42</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -602,27 +606,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>493.42</v>
+        <v>536.25</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -637,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>479.8</v>
+        <v>77.22</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -707,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -742,25 +746,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>77.22</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>54.09</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -773,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1056404169#searchVariation=MLB28722231&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -808,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -824,11 +832,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>326.53</v>
+        <v>364.95</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -843,25 +851,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>54.09</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>64.20999999999999</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -874,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1056404169#searchVariation=MLB28722231&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -909,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -944,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -956,13 +968,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>64.20999999999999</v>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -975,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-controle-longa-distncia-jfa-k1200-completo-preto/p/MLB29770584?pdp_filters=seller_id:1056404169#searchVariation=MLB29770584&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/kit-controle-longa-distncia-jfa-k1200-completo-preto/p/MLB29770584?pdp_filters=seller_id:1056404169#searchVariation=MLB29770584&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -1010,25 +1026,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>64.20999999999999</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>443.07</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1036,28 +1056,28 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3863782558-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador Som</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>634.4</v>
+        <v>573.36</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1071,28 +1091,28 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>443.07</v>
+        <v>434.42</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1111,27 +1131,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3863782558-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador Som</t>
+          <t>Controle Longa Distancia Jfa K1200 Azul Completo O Melhor</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>513.01</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1146,25 +1166,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344087007-controle-longa-distancia-jfa-k1200-azul-completo-o-melhor-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul Completo O Melhor</t>
+          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1177,27 +1201,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344087007-controle-longa-distancia-jfa-k1200-azul-completo-o-melhor-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>388.69</v>
+        <v>634.4</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1207,12 +1231,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -1228,11 +1252,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>365.71</v>
+        <v>408.73</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1247,7 +1271,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
@@ -1259,13 +1283,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>78</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>64.20999999999999</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1273,30 +1301,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>64.20999999999999</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>716.71</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1304,32 +1336,32 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>641.27</v>
+        <v>117.81</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1339,30 +1371,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Fonte Automotiva Carregador Bateria Jfa Storm 120a Amperes</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>117.81</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1370,33 +1406,37 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Controle Jfa Acqua Prova D'água Longa Distância 1200m Branco</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>92.23</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>694.8200000000001</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1406,27 +1446,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3497393217-controle-jfa-acqua-prova-dagua-longa-distncia-1200m-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Carregador Bateria Jfa Storm 120a Amperes</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>674.6799999999999</v>
+        <v>53.21</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1441,23 +1481,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1056404169#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Bivolt Storm Medidor Cca</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>694.8200000000001</v>
+        <v>473.28</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1476,25 +1516,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>64.34</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>390.43</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1507,23 +1551,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1056404169#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Bivolt Storm Medidor Cca</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>473.28</v>
+        <v>681.83</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1537,82 +1581,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>349.33</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>610.0599999999999</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfa9f0dfc-021c-42bd-ba78-a07102c064a3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
         </is>
       </c>
     </row>

--- a/dados/digitalshop sc.xlsx
+++ b/dados/digitalshop sc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1120 +483,1121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>716.71</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>624.33</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>493.42</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>422.93</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>77.22</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>493.42</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>716.71</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>536.25</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>624.33</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>77.22</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>433</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>402.79</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>536.25</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C9" t="n">
-        <v>433</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E9" t="n">
+        <v>402.79</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>54.09</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 200a Storm Lite Monovolt Carregador Som Automotivo</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>775.38</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:1056404169#searchVariation=MLB28722231&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3573909563-fonte-jfa-200a-storm-lite-monovolt-carregador-som-automotivo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>FONTE 120 BOB</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="E11" t="n">
         <v>499.46</v>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>364.95</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>64.20999999999999</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>64.20999999999999</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>523.63</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>523.63</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>845.87</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>845.87</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>434.42</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Kit Controle Longa Distância Jfa K1200 Completo Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>64.20999999999999</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>716.71</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-controle-longa-distncia-jfa-k1200-completo-preto/p/MLB29770584?pdp_filters=seller_id:1056404169#searchVariation=MLB29770584&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>443.07</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>78</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nova Fonte Carregador Jfa Bob Storm 90a Bivolt Automático</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>FONTE 90 BOB</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>443.07</v>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3863782558-nova-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>573.36</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+        </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>64.20999999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador Som</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>434.42</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E20" t="n">
+        <v>408.73</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Azul Completo O Melhor</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>69.45999999999999</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>CONTROLE WR</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>117.81</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344087007-controle-longa-distancia-jfa-k1200-azul-completo-o-melhor-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>78</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>422.93</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3863854322-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>634.4</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>443.07</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador Som</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>408.73</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>694.8200000000001</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>64.20999999999999</v>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A LITE</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>390.43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>FONTE 200A LITE</t>
         </is>
       </c>
-      <c r="C26" t="n">
-        <v>716.71</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E26" t="n">
+        <v>681.83</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CONTROLE WR</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>117.81</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Carregador Bateria Jfa Storm 120a Amperes</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>694.8200000000001</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>53.21</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:1056404169#searchVariation=MLB28687615&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=869b69a6-b2d5-4303-812a-bd20c633abc4</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fonte Carregador Automotivo Jfa 60a Bivolt Storm Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>473.28</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>FONTE 60A LITE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>390.43</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>FONTE 200A LITE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>681.83</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D869b69a6-b2d5-4303-812a-bd20c633abc4</t>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
         </is>
       </c>
     </row>

--- a/dados/digitalshop sc.xlsx
+++ b/dados/digitalshop sc.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,42 +493,38 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Jfa 200a Storm Lite Monovolt Carregador Som Automotivo</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+        <v>775.38</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3573909563-fonte-jfa-200a-storm-lite-monovolt-carregador-som-automotivo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,42 +534,42 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>493.42</v>
+        <v>710.1900000000001</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +579,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>77.22</v>
+        <v>423.99</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -611,14 +607,14 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,25 +624,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>716.71</v>
+        <v>457.29</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -656,14 +652,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>624.33</v>
+        <v>754.4400000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -696,19 +692,19 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,42 +714,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>433</v>
+        <v>564.48</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,16 +759,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>536.25</v>
+        <v>77.22</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -791,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,25 +804,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>402.79</v>
+        <v>519.39</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -836,14 +832,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,38 +849,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Storm Lite Monovolt Carregador Som Automotivo</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>775.38</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>455.79</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3573909563-fonte-jfa-200a-storm-lite-monovolt-carregador-som-automotivo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,20 +894,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>499.46</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -922,14 +922,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,16 +939,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>64.20999999999999</v>
+        <v>890.39</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -962,19 +962,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -993,11 +993,11 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>523.63</v>
+        <v>551.1900000000001</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1012,14 +1012,14 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,20 +1029,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>845.87</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1052,19 +1052,19 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,20 +1074,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>434.42</v>
+        <v>525.75</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1097,19 +1097,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,42 +1119,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador Som</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>716.71</v>
+        <v>430.25</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>78</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1187,19 +1187,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>443.07</v>
+        <v>466.39</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1237,14 +1237,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>64.20999999999999</v>
+        <v>78</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1277,19 +1277,19 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,42 +1299,42 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador Som</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>408.73</v>
+        <v>754.4400000000001</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,16 +1344,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>117.81</v>
+        <v>731.39</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1362,24 +1362,24 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1389,25 +1389,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>422.93</v>
+        <v>466.39</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,14 +1417,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3863854322-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,25 +1434,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>443.07</v>
+        <v>445.19</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1462,14 +1462,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3863854322-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1479,42 +1479,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>694.8200000000001</v>
+        <v>117.81</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,20 +1524,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>390.43</v>
+        <v>717.72</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1547,19 +1547,19 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=e384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1569,20 +1569,20 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>681.83</v>
+        <v>410.98</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3De384968d-d203-4ceb-ab29-4aab9ac92837</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
         </is>
       </c>
     </row>

--- a/dados/digitalshop sc.xlsx
+++ b/dados/digitalshop sc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,18 +493,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Storm Lite Monovolt Carregador Som Automotivo</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>775.38</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>447.45</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -512,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3573909563-fonte-jfa-200a-storm-lite-monovolt-carregador-som-automotivo-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -534,16 +538,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 200a Storm Voltímetro Digital Mono 220v Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>710.1900000000001</v>
+        <v>798.12</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -562,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-storm-voltimetro-digital-mono-220v-cor-preto/p/MLB24006449?pdp_filters=seller_id:1056404169#wid=MLB3807393797&amp;sid=search&amp;searchVariation=MLB24006449&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -579,22 +583,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Fonte Carregador Som Automotivo Jfa 200a Storm Lite Monovolt</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>798.12</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -602,19 +602,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#searchVariation=MLB21621306&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3573955029-fonte-carregador-som-automotivo-jfa-200a-storm-lite-monovolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -624,42 +624,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>457.29</v>
+        <v>375.9</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3350295935-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#wid=MLB3632506847&amp;sid=search&amp;searchVariation=MLB23456525&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -669,20 +669,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+          <t>Controle Longa Distancia Jfa K1200 Acqua Completo Top Preto</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>754.4400000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -697,14 +697,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#searchVariation=MLB24154371&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3806308699-controle-longa-distancia-jfa-k1200-acqua-completo-top-preto-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -714,20 +714,20 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador Som</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>564.48</v>
+        <v>420.99</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -742,14 +742,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#searchVariation=MLB23998473&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -759,16 +759,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>77.22</v>
+        <v>552.34</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -787,14 +787,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#searchVariation=MLB27687422&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:1056404169#wid=MLB3634942239&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -804,16 +804,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>519.39</v>
+        <v>738.22</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -822,24 +822,24 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#searchVariation=MLB21455208&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:1056404169#wid=MLB3582444451&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -849,20 +849,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>455.79</v>
+        <v>508.22</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -872,19 +872,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#searchVariation=MLB22569833&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:1056404169#wid=MLB3707123822&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -894,16 +894,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador Som</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>657.1900000000001</v>
+        <v>590.55</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -917,19 +917,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4131026512-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-som-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -939,20 +939,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>890.39</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -962,19 +962,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#searchVariation=MLB21348561&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:1056404169#wid=MLB4537804370&amp;sid=search&amp;searchVariation=MLB27687422&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -984,20 +984,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>551.1900000000001</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1007,19 +1007,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#searchVariation=MLB27622275&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:1056404169#wid=MLB4407867834&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1029,25 +1029,21 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 Preto/laranja 1200mt</t>
+          <t>Fonte Jfa 200a Storm Lite Monovolt Carregador Som Automotivo</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>64.20999999999999</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>758.71</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1057,14 +1053,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-pretolaranja-1200mt/p/MLB28357019?pdp_filters=seller_id:1056404169#searchVariation=MLB28357019&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3573909563-fonte-jfa-200a-storm-lite-monovolt-carregador-som-automotivo-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1074,20 +1070,20 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa 200a Storm Voltímetro Digital Mono 220v</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 MONO</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>525.75</v>
+        <v>758.71</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1102,14 +1098,14 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#searchVariation=MLB22144397&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3724096089-fonte-automotiva-jfa-200a-storm-voltimetro-digital-mono-220v-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1119,16 +1115,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador Som</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>430.25</v>
+        <v>445.98</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1137,24 +1133,24 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3707207616-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-som-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:1056404169#wid=MLB4384293626&amp;sid=search&amp;searchVariation=MLB22569833&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1164,16 +1160,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+          <t>Fonte Automotiva Jfa Storm Lite 60a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A LITE</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>64.20999999999999</v>
+        <v>402.13</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1187,19 +1183,19 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3572083997-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3350332825-fonte-automotiva-jfa-storm-lite-60a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1209,16 +1205,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>466.39</v>
+        <v>436.71</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1227,24 +1223,24 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#searchVariation=MLB21562641&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:1056404169#wid=MLB3343554901&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1254,16 +1250,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Controle Jfa K1200 Preto Com Laranja Longa Distância 1200mt</t>
+          <t>Fonte Carregador Automotivo Jfa 60a Bivolt Storm Medidor Cca</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>78</v>
+        <v>487.48</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1282,14 +1278,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3693932379-controle-jfa-k1200-preto-com-laranja-longa-distncia-1200mt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3470559799-fonte-carregador-automotivo-jfa-60a-bivolt-storm-medidor-cca-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1299,16 +1295,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>754.4400000000001</v>
+        <v>113.05</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1317,24 +1313,24 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3724493418-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1344,16 +1340,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>731.39</v>
+        <v>539.34</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1362,7 +1358,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1372,14 +1368,14 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:1056404169#wid=MLB4674220226&amp;sid=search&amp;searchVariation=MLB27622275&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1389,16 +1385,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Automotiva Carregador Bateria Jfa Storm 120a Amperes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>466.39</v>
+        <v>694.92</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1407,24 +1403,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#searchVariation=MLB21320712&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3706869734-fonte-automotiva-carregador-bateria-jfa-storm-120a-amperes-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1434,20 +1430,20 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>445.19</v>
+        <v>514.4400000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1462,14 +1458,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3863854322-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:1056404169#wid=MLB3343983727&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1479,20 +1475,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa Redline Wr P Aparelho Original</t>
+          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>117.81</v>
+        <v>702.28</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1507,14 +1503,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3789324528-controle-longa-distancia-jfa-redline-wr-p-aparelho-original-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1524,20 +1520,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 200a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>717.72</v>
+        <v>435.62</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1552,14 +1548,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482419471-fonte-automotiva-jfa-storm-lite-200a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3863854322-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1569,35 +1565,215 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 60A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>410.98</v>
+        <v>456.36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:1056404169#wid=MLB3343556477&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>653.42</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:1056404169#wid=MLB3707087458&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:1056404169#searchVariation=MLB23456525&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=73caea83-5c5b-4f02-aabf-9e1183eda368</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3344001937-fonte-carregador-jfa-bob-storm-200a-bivolt-_JM?searchVariation=178756761911#searchVariation%3D178756761911%26position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:1056404169#wid=MLB3863755724&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>digitalshop sc</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>871.24</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:1056404169#wid=MLB3707141132&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=4372bf9d-b120-44b6-9cd3-0a8193813e68</t>
         </is>
       </c>
     </row>
